--- a/database/imports/terms.xlsx
+++ b/database/imports/terms.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E6675-C99B-46BD-BF56-C0EE37BC071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44446E3F-D014-409D-8A31-DAFA27BC9A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="1350" windowWidth="21600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +93,464 @@
   </si>
   <si>
     <t>2023/6/9  12:00</t>
+  </si>
+  <si>
+    <t>CarBrand</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-10-22 18:00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-10-22 18:00</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>M-Benz</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Bmw</t>
+  </si>
+  <si>
+    <t>Chery</t>
+  </si>
+  <si>
+    <t>Citroen</t>
+  </si>
+  <si>
+    <t>Daihatsu</t>
+  </si>
+  <si>
+    <t>Dfsk</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Formosa</t>
+  </si>
+  <si>
+    <t>Foton</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Hummer</t>
+  </si>
+  <si>
+    <t>Infiniti</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>Iveco</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>Luxgen</t>
+  </si>
+  <si>
+    <t>Lamborghini</t>
+  </si>
+  <si>
+    <t>Lancia</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>Mazda</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Mahindra</t>
+  </si>
+  <si>
+    <t>Mclaren</t>
+  </si>
+  <si>
+    <t>Maserati</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>Proton</t>
+  </si>
+  <si>
+    <t>Peugeot</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Ssangyong</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Saab</t>
+  </si>
+  <si>
+    <t>Skoda</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Tobe</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>AlfaRomeo</t>
+  </si>
+  <si>
+    <t>AstonMartin</t>
+  </si>
+  <si>
+    <t>LandRover</t>
+  </si>
+  <si>
+    <t>RollsRoyce</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarModel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toyota</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorollaCross</t>
+  </si>
+  <si>
+    <t>HighlanderHybrid</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>Cr-V</t>
+  </si>
+  <si>
+    <t>Cr-Z</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Hr-V</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Nsx</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Alphard</t>
+  </si>
+  <si>
+    <t>Bz</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>Ch-R</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>Granvia</t>
+  </si>
+  <si>
+    <t>Hiace</t>
+  </si>
+  <si>
+    <t>Hilux</t>
+  </si>
+  <si>
+    <t>Innova</t>
+  </si>
+  <si>
+    <t>Previa</t>
+  </si>
+  <si>
+    <t>Prius</t>
+  </si>
+  <si>
+    <t>Rav4</t>
+  </si>
+  <si>
+    <t>Sienta</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>Vios</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>Yaris</t>
+  </si>
+  <si>
+    <t>4Runner</t>
+  </si>
+  <si>
+    <t>CorollaAltis</t>
+  </si>
+  <si>
+    <t>CorollaSport(Auris)</t>
+  </si>
+  <si>
+    <t>FjCruiser</t>
+  </si>
+  <si>
+    <t>GrSupra</t>
+  </si>
+  <si>
+    <t>GrYaris</t>
+  </si>
+  <si>
+    <t>Hiace(Solemio)</t>
+  </si>
+  <si>
+    <t>LandCruiserPrado</t>
+  </si>
+  <si>
+    <t>YarisCrossover</t>
+  </si>
+  <si>
+    <t>ZaceSurf</t>
+  </si>
+  <si>
+    <t>SiennaUS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TownAceTruck</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TownAceVan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CamryJapan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarGeneration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firstgeneration(1995)</t>
+  </si>
+  <si>
+    <t>Secondgeneration(2001)</t>
+  </si>
+  <si>
+    <t>Thirdgeneration(2006)</t>
+  </si>
+  <si>
+    <t>Fourthgeneration(2011)</t>
+  </si>
+  <si>
+    <t>Fifthgeneration(2016)</t>
+  </si>
+  <si>
+    <t>Sixthgeneration(2022</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>Crossover</t>
+  </si>
+  <si>
+    <t>Hatchback</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Convertible</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Minivan</t>
+  </si>
+  <si>
+    <t>MPV</t>
+  </si>
+  <si>
+    <t>CarBodyStyle</t>
+  </si>
+  <si>
+    <t>轎車</t>
+  </si>
+  <si>
+    <t>旅行車</t>
+  </si>
+  <si>
+    <t>休旅車</t>
+  </si>
+  <si>
+    <t>掀背車</t>
+  </si>
+  <si>
+    <t>雙門轎車</t>
+  </si>
+  <si>
+    <t>跑車</t>
+  </si>
+  <si>
+    <t>敞篷車</t>
+  </si>
+  <si>
+    <t>貨車皮卡</t>
+  </si>
+  <si>
+    <t>面包车</t>
+  </si>
+  <si>
+    <t>貨車封閉式</t>
+  </si>
+  <si>
+    <t>SUV 敞篷</t>
+  </si>
+  <si>
+    <t>運動型休旅車</t>
+  </si>
+  <si>
+    <t>貨車</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CargoVan</t>
+  </si>
+  <si>
+    <t>ConvertibleSUV</t>
+  </si>
+  <si>
+    <t>PickupTruck</t>
+  </si>
+  <si>
+    <t>SportUtilityCoupe</t>
+  </si>
+  <si>
+    <t>SportsCar</t>
+  </si>
+  <si>
+    <t>StationWagon</t>
   </si>
 </sst>
 </file>
@@ -1034,435 +1505,4039 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:G18"/>
+      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
+    <col min="7" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>33</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78">
+        <v>33</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>33</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>33</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>33</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83">
+        <v>33</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>33</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>33</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87">
+        <v>69</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88">
+        <v>69</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89">
+        <v>69</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91">
+        <v>69</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92">
+        <v>69</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>69</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>79</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94">
+        <v>69</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95">
+        <v>69</v>
+      </c>
+      <c r="D95">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96">
+        <v>69</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>69</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>69</v>
+      </c>
+      <c r="D98">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>79</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100">
+        <v>69</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>69</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>69</v>
+      </c>
+      <c r="D102">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103">
+        <v>69</v>
+      </c>
+      <c r="D103">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104">
+        <v>69</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>69</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107">
+        <v>69</v>
+      </c>
+      <c r="D107">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>69</v>
+      </c>
+      <c r="D108">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>69</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>69</v>
+      </c>
+      <c r="D110">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111">
+        <v>69</v>
+      </c>
+      <c r="D111">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112">
+        <v>69</v>
+      </c>
+      <c r="D112">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>79</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113">
+        <v>69</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114">
+        <v>69</v>
+      </c>
+      <c r="D114">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115">
+        <v>69</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116">
+        <v>69</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116" t="s">
+        <v>79</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117">
+        <v>69</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118">
+        <v>69</v>
+      </c>
+      <c r="D118">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119">
+        <v>69</v>
+      </c>
+      <c r="D119">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>69</v>
+      </c>
+      <c r="D120">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121">
+        <v>69</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>79</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122">
+        <v>77</v>
+      </c>
+      <c r="D122">
+        <v>16</v>
+      </c>
+      <c r="E122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123">
+        <v>77</v>
+      </c>
+      <c r="D123">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124">
+        <v>77</v>
+      </c>
+      <c r="D124">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125">
+        <v>77</v>
+      </c>
+      <c r="D125">
+        <v>16</v>
+      </c>
+      <c r="E125" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126">
+        <v>77</v>
+      </c>
+      <c r="D126">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127">
+        <v>77</v>
+      </c>
+      <c r="D127">
+        <v>16</v>
+      </c>
+      <c r="E127" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>145</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>145</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>145</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>17</v>
+      </c>
+      <c r="E131" t="s">
+        <v>145</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
+        <v>145</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>17</v>
+      </c>
+      <c r="E133" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>17</v>
+      </c>
+      <c r="E134" t="s">
+        <v>145</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
+        <v>145</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>17</v>
+      </c>
+      <c r="E137" t="s">
+        <v>145</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+      <c r="E138" t="s">
+        <v>145</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
+        <v>145</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>17</v>
+      </c>
+      <c r="E141" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>17</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/database/imports/terms.xlsx
+++ b/database/imports/terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44446E3F-D014-409D-8A31-DAFA27BC9A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B340D59A-3B76-43F5-A5AE-5B85287D701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -551,6 +551,512 @@
   </si>
   <si>
     <t>StationWagon</t>
+  </si>
+  <si>
+    <t>CR-V 第一代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-V 第二代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-V 第三代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-V 第四代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-V 第五代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR-V 第六代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2L</t>
+  </si>
+  <si>
+    <t>1.2L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5L</t>
+  </si>
+  <si>
+    <t>0.5L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6L</t>
+  </si>
+  <si>
+    <t>0.6L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8L</t>
+  </si>
+  <si>
+    <t>1.8L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4L</t>
+  </si>
+  <si>
+    <t>2.4L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6L</t>
+  </si>
+  <si>
+    <t>3.6L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2L</t>
+  </si>
+  <si>
+    <t>4.2L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8L</t>
+  </si>
+  <si>
+    <t>4.8L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0L</t>
+  </si>
+  <si>
+    <t>3.0L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarEngineCapacity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0L</t>
+  </si>
+  <si>
+    <t>2.0L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5L</t>
+  </si>
+  <si>
+    <t>1.5L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6L</t>
+  </si>
+  <si>
+    <t>1.6L</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Monitors</t>
+  </si>
+  <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <t>Scanners</t>
+  </si>
+  <si>
+    <t>Web Cameras</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Laptops &amp; Notebooks</t>
+  </si>
+  <si>
+    <t>Macs</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>ALFA ROMEO</t>
+  </si>
+  <si>
+    <t>ASTON MARTIN</t>
+  </si>
+  <si>
+    <t>M-BENZ</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>CHERY</t>
+  </si>
+  <si>
+    <t>CITROEN</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>DFSK</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>FORMOSA</t>
+  </si>
+  <si>
+    <t>FOTON</t>
+  </si>
+  <si>
+    <t>FERRARI</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>HINO</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t>HUMMER</t>
+  </si>
+  <si>
+    <t>INFINITI</t>
+  </si>
+  <si>
+    <t>ISUZU</t>
+  </si>
+  <si>
+    <t>IVECO</t>
+  </si>
+  <si>
+    <t>JAGUAR</t>
+  </si>
+  <si>
+    <t>JEEP</t>
+  </si>
+  <si>
+    <t>KIA</t>
+  </si>
+  <si>
+    <t>LEXUS</t>
+  </si>
+  <si>
+    <t>LUXGEN</t>
+  </si>
+  <si>
+    <t>LAMBORGHINI</t>
+  </si>
+  <si>
+    <t>LAND ROVER</t>
+  </si>
+  <si>
+    <t>LANCIA</t>
+  </si>
+  <si>
+    <t>LOTUS</t>
+  </si>
+  <si>
+    <t>MAZDA</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>MAHINDRA</t>
+  </si>
+  <si>
+    <t>MCLAREN</t>
+  </si>
+  <si>
+    <t>MASERATI</t>
+  </si>
+  <si>
+    <t>MORGAN</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>OPEL</t>
+  </si>
+  <si>
+    <t>PROTON</t>
+  </si>
+  <si>
+    <t>PEUGEOT</t>
+  </si>
+  <si>
+    <t>PORSCHE</t>
+  </si>
+  <si>
+    <t>ROLLS ROYCE</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>SUBARU</t>
+  </si>
+  <si>
+    <t>SSANGYONG</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>SAAB</t>
+  </si>
+  <si>
+    <t>SKODA</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>TOBE</t>
+  </si>
+  <si>
+    <t>TESLA</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>ACCORD</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>CIVIC</t>
+  </si>
+  <si>
+    <t>CR-V</t>
+  </si>
+  <si>
+    <t>CR-Z</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>HR-V</t>
+  </si>
+  <si>
+    <t>INSIGHT</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>NSX</t>
+  </si>
+  <si>
+    <t>ODYSSEY</t>
+  </si>
+  <si>
+    <t>4 RUNNER</t>
+  </si>
+  <si>
+    <t>ALPHARD</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>CAMRY</t>
+  </si>
+  <si>
+    <t>CAMRY 日製</t>
+  </si>
+  <si>
+    <t>CH-R</t>
+  </si>
+  <si>
+    <t>Corolla ALTIS</t>
+  </si>
+  <si>
+    <t>Corolla Cross</t>
+  </si>
+  <si>
+    <t>Corolla Sport (AURIS)</t>
+  </si>
+  <si>
+    <t>CROWN</t>
+  </si>
+  <si>
+    <t>FJ Cruiser</t>
+  </si>
+  <si>
+    <t>GR SUPRA</t>
+  </si>
+  <si>
+    <t>GR YARIS</t>
+  </si>
+  <si>
+    <t>GRANVIA</t>
+  </si>
+  <si>
+    <t>HIACE</t>
+  </si>
+  <si>
+    <t>HIACE (Solemio)</t>
+  </si>
+  <si>
+    <t>Highlander Hybrid</t>
+  </si>
+  <si>
+    <t>HILUX</t>
+  </si>
+  <si>
+    <t>INNOVA</t>
+  </si>
+  <si>
+    <t>Land Cruiser PRADO</t>
+  </si>
+  <si>
+    <t>PREVIA</t>
+  </si>
+  <si>
+    <t>PRIUS</t>
+  </si>
+  <si>
+    <t>RAV4</t>
+  </si>
+  <si>
+    <t>SIENNA US</t>
+  </si>
+  <si>
+    <t>SIENTA</t>
+  </si>
+  <si>
+    <t>TACOMA</t>
+  </si>
+  <si>
+    <t>TOWN ACE Truck</t>
+  </si>
+  <si>
+    <t>TOWN ACE Van</t>
+  </si>
+  <si>
+    <t>TUNDRA</t>
+  </si>
+  <si>
+    <t>VIOS</t>
+  </si>
+  <si>
+    <t>WISH</t>
+  </si>
+  <si>
+    <t>YARIS</t>
+  </si>
+  <si>
+    <t>YARIS Crossover</t>
+  </si>
+  <si>
+    <t>ZACE SURF</t>
+  </si>
+  <si>
+    <t>First generation (1995)</t>
+  </si>
+  <si>
+    <t>Second generation (2001)</t>
+  </si>
+  <si>
+    <t>Third generation (2006)</t>
+  </si>
+  <si>
+    <t>Fourth generation (2011)</t>
+  </si>
+  <si>
+    <t>Fifth generation (2016)</t>
+  </si>
+  <si>
+    <t>Sixth generation (2022</t>
+  </si>
+  <si>
+    <t>Cargo Van</t>
+  </si>
+  <si>
+    <t>Convertible SUV</t>
+  </si>
+  <si>
+    <t>Pickup Truck</t>
+  </si>
+  <si>
+    <t>Sport Utility Coupe</t>
+  </si>
+  <si>
+    <t>Sports Car</t>
+  </si>
+  <si>
+    <t>Station Wagon</t>
   </si>
 </sst>
 </file>
@@ -1505,13 +2011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1520,11 +2026,13 @@
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.375" customWidth="1"/>
-    <col min="7" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="42.375" customWidth="1"/>
+    <col min="8" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1541,19 +2049,22 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1566,17 +2077,17 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1589,17 +2100,20 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1612,17 +2126,20 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1635,17 +2152,20 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1658,17 +2178,20 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1681,17 +2204,20 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
+      <c r="F7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1704,17 +2230,20 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
+      <c r="F8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1727,17 +2256,20 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1750,17 +2282,20 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1773,17 +2308,20 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
+      <c r="F11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1796,17 +2334,20 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1819,17 +2360,20 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1842,17 +2386,20 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
+      <c r="F14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1865,17 +2412,20 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
+      <c r="F15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1888,17 +2438,20 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
+      <c r="F16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1911,17 +2464,20 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1934,17 +2490,20 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
+      <c r="F18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1960,20 +2519,23 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
+      <c r="F19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1989,20 +2551,23 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
+      <c r="F20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2018,20 +2583,23 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2047,20 +2615,23 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>19</v>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2076,20 +2647,23 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2105,20 +2679,23 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>19</v>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2134,20 +2711,23 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2163,20 +2743,23 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>19</v>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2192,20 +2775,23 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>19</v>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2221,20 +2807,23 @@
       <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>19</v>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2250,20 +2839,23 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>19</v>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2279,20 +2871,23 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>19</v>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2308,20 +2903,23 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>19</v>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2337,20 +2935,23 @@
       <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>19</v>
+      <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2366,20 +2967,23 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>19</v>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2395,20 +2999,23 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2424,20 +3031,23 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2453,20 +3063,23 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>19</v>
+      <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2482,20 +3095,23 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
+      <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2511,20 +3127,23 @@
       <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>19</v>
+      <c r="F38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2540,20 +3159,23 @@
       <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
+      <c r="F39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2569,20 +3191,23 @@
       <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>19</v>
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2598,20 +3223,23 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>19</v>
+      <c r="F41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2627,20 +3255,23 @@
       <c r="E42" t="s">
         <v>17</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>19</v>
+      <c r="F42" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2656,20 +3287,23 @@
       <c r="E43" t="s">
         <v>17</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>19</v>
+      <c r="F43" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2685,20 +3319,23 @@
       <c r="E44" t="s">
         <v>17</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>19</v>
+      <c r="F44" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2714,20 +3351,23 @@
       <c r="E45" t="s">
         <v>17</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>19</v>
+      <c r="F45" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2743,20 +3383,23 @@
       <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>19</v>
+      <c r="F46" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2772,20 +3415,23 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>19</v>
+      <c r="F47" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2801,20 +3447,23 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>19</v>
+      <c r="F48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2830,20 +3479,23 @@
       <c r="E49" t="s">
         <v>17</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>19</v>
+      <c r="F49" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2859,20 +3511,23 @@
       <c r="E50" t="s">
         <v>17</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>19</v>
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2888,20 +3543,23 @@
       <c r="E51" t="s">
         <v>17</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>19</v>
+      <c r="F51" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2917,20 +3575,23 @@
       <c r="E52" t="s">
         <v>17</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>19</v>
+      <c r="F52" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2946,20 +3607,23 @@
       <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>19</v>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2975,20 +3639,23 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>19</v>
+      <c r="F54" t="s">
+        <v>248</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3004,20 +3671,23 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>19</v>
+      <c r="F55" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3033,20 +3703,23 @@
       <c r="E56" t="s">
         <v>17</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>19</v>
+      <c r="F56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3062,20 +3735,23 @@
       <c r="E57" t="s">
         <v>17</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>19</v>
+      <c r="F57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3091,20 +3767,23 @@
       <c r="E58" t="s">
         <v>17</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>19</v>
+      <c r="F58" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3120,20 +3799,23 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>19</v>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3149,20 +3831,23 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>19</v>
+      <c r="F60" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3178,20 +3863,23 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>19</v>
+      <c r="F61" t="s">
+        <v>255</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3207,20 +3895,23 @@
       <c r="E62" t="s">
         <v>17</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>19</v>
+      <c r="F62" t="s">
+        <v>256</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3236,20 +3927,23 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>19</v>
+      <c r="F63" t="s">
+        <v>257</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3265,20 +3959,23 @@
       <c r="E64" t="s">
         <v>17</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>19</v>
+      <c r="F64" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3294,20 +3991,23 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>19</v>
+      <c r="F65" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3323,20 +4023,23 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>19</v>
+      <c r="F66" t="s">
+        <v>260</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3352,20 +4055,23 @@
       <c r="E67" t="s">
         <v>17</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>19</v>
+      <c r="F67" t="s">
+        <v>261</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3381,20 +4087,23 @@
       <c r="E68" t="s">
         <v>17</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>19</v>
+      <c r="F68" t="s">
+        <v>262</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3410,20 +4119,23 @@
       <c r="E69" t="s">
         <v>17</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>19</v>
+      <c r="F69" t="s">
+        <v>263</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3439,20 +4151,23 @@
       <c r="E70" t="s">
         <v>17</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>19</v>
+      <c r="F70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3468,20 +4183,23 @@
       <c r="E71" t="s">
         <v>17</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>19</v>
+      <c r="F71" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3497,20 +4215,23 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>19</v>
+      <c r="F72" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3526,20 +4247,23 @@
       <c r="E73" t="s">
         <v>17</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>19</v>
+      <c r="F73" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3555,20 +4279,23 @@
       <c r="E74" t="s">
         <v>17</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>19</v>
+      <c r="F74" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3584,20 +4311,23 @@
       <c r="E75" t="s">
         <v>17</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>19</v>
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3613,20 +4343,23 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>19</v>
+      <c r="F76" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3642,20 +4375,23 @@
       <c r="E77" t="s">
         <v>79</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>19</v>
+      <c r="F77" t="s">
+        <v>271</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3671,20 +4407,23 @@
       <c r="E78" t="s">
         <v>79</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>19</v>
+      <c r="F78" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3700,20 +4439,23 @@
       <c r="E79" t="s">
         <v>79</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>19</v>
+      <c r="F79" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3729,20 +4471,23 @@
       <c r="E80" t="s">
         <v>79</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>19</v>
+      <c r="F80" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3758,20 +4503,23 @@
       <c r="E81" t="s">
         <v>79</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>19</v>
+      <c r="F81" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3787,20 +4535,23 @@
       <c r="E82" t="s">
         <v>79</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>19</v>
+      <c r="F82" t="s">
+        <v>276</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3816,20 +4567,23 @@
       <c r="E83" t="s">
         <v>79</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>19</v>
+      <c r="F83" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3845,20 +4599,23 @@
       <c r="E84" t="s">
         <v>79</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>19</v>
+      <c r="F84" t="s">
+        <v>278</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3874,20 +4631,23 @@
       <c r="E85" t="s">
         <v>79</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>19</v>
+      <c r="F85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3903,20 +4663,23 @@
       <c r="E86" t="s">
         <v>79</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>19</v>
+      <c r="F86" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3932,20 +4695,23 @@
       <c r="E87" t="s">
         <v>79</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>19</v>
+      <c r="F87" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3962,19 +4728,22 @@
         <v>79</v>
       </c>
       <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3990,20 +4759,23 @@
       <c r="E89" t="s">
         <v>79</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>19</v>
+      <c r="F89" t="s">
+        <v>282</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4019,20 +4791,23 @@
       <c r="E90" t="s">
         <v>79</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>19</v>
+      <c r="F90" t="s">
+        <v>283</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4048,20 +4823,23 @@
       <c r="E91" t="s">
         <v>79</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>19</v>
+      <c r="F91" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4077,20 +4855,23 @@
       <c r="E92" t="s">
         <v>79</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>19</v>
+      <c r="F92" t="s">
+        <v>285</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4106,20 +4887,23 @@
       <c r="E93" t="s">
         <v>79</v>
       </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>19</v>
+      <c r="F93" t="s">
+        <v>286</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4135,20 +4919,23 @@
       <c r="E94" t="s">
         <v>79</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>19</v>
+      <c r="F94" t="s">
+        <v>287</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4164,20 +4951,23 @@
       <c r="E95" t="s">
         <v>79</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>19</v>
+      <c r="F95" t="s">
+        <v>288</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4193,20 +4983,23 @@
       <c r="E96" t="s">
         <v>79</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>19</v>
+      <c r="F96" t="s">
+        <v>289</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4222,20 +5015,23 @@
       <c r="E97" t="s">
         <v>79</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>19</v>
+      <c r="F97" t="s">
+        <v>290</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4251,20 +5047,23 @@
       <c r="E98" t="s">
         <v>79</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>19</v>
+      <c r="F98" t="s">
+        <v>291</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4280,20 +5079,23 @@
       <c r="E99" t="s">
         <v>79</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>19</v>
+      <c r="F99" t="s">
+        <v>292</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4309,20 +5111,23 @@
       <c r="E100" t="s">
         <v>79</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>19</v>
+      <c r="F100" t="s">
+        <v>293</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4338,20 +5143,23 @@
       <c r="E101" t="s">
         <v>79</v>
       </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>19</v>
+      <c r="F101" t="s">
+        <v>294</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4367,20 +5175,23 @@
       <c r="E102" t="s">
         <v>79</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>19</v>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4396,20 +5207,23 @@
       <c r="E103" t="s">
         <v>79</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>19</v>
+      <c r="F103" t="s">
+        <v>296</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4425,20 +5239,23 @@
       <c r="E104" t="s">
         <v>79</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>19</v>
+      <c r="F104" t="s">
+        <v>297</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4454,20 +5271,23 @@
       <c r="E105" t="s">
         <v>79</v>
       </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>19</v>
+      <c r="F105" t="s">
+        <v>298</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4483,20 +5303,23 @@
       <c r="E106" t="s">
         <v>79</v>
       </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>19</v>
+      <c r="F106" t="s">
+        <v>299</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4512,20 +5335,23 @@
       <c r="E107" t="s">
         <v>79</v>
       </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>19</v>
+      <c r="F107" t="s">
+        <v>300</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4541,20 +5367,23 @@
       <c r="E108" t="s">
         <v>79</v>
       </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>19</v>
+      <c r="F108" t="s">
+        <v>301</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4570,20 +5399,23 @@
       <c r="E109" t="s">
         <v>79</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>19</v>
+      <c r="F109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4599,20 +5431,23 @@
       <c r="E110" t="s">
         <v>79</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>19</v>
+      <c r="F110" t="s">
+        <v>303</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4628,20 +5463,23 @@
       <c r="E111" t="s">
         <v>79</v>
       </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>19</v>
+      <c r="F111" t="s">
+        <v>304</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4657,20 +5495,23 @@
       <c r="E112" t="s">
         <v>79</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>19</v>
+      <c r="F112" t="s">
+        <v>305</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4686,20 +5527,23 @@
       <c r="E113" t="s">
         <v>79</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>19</v>
+      <c r="F113" t="s">
+        <v>306</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4715,20 +5559,23 @@
       <c r="E114" t="s">
         <v>79</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>19</v>
+      <c r="F114" t="s">
+        <v>307</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4744,20 +5591,23 @@
       <c r="E115" t="s">
         <v>79</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>19</v>
+      <c r="F115" t="s">
+        <v>308</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4773,20 +5623,23 @@
       <c r="E116" t="s">
         <v>79</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>19</v>
+      <c r="F116" t="s">
+        <v>309</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4802,20 +5655,23 @@
       <c r="E117" t="s">
         <v>79</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>19</v>
+      <c r="F117" t="s">
+        <v>310</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4831,20 +5687,23 @@
       <c r="E118" t="s">
         <v>79</v>
       </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>19</v>
+      <c r="F118" t="s">
+        <v>311</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4860,20 +5719,23 @@
       <c r="E119" t="s">
         <v>79</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>19</v>
+      <c r="F119" t="s">
+        <v>312</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -4889,20 +5751,23 @@
       <c r="E120" t="s">
         <v>79</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>19</v>
+      <c r="F120" t="s">
+        <v>313</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -4918,20 +5783,23 @@
       <c r="E121" t="s">
         <v>79</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>19</v>
+      <c r="F121" t="s">
+        <v>314</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -4947,20 +5815,29 @@
       <c r="E122" t="s">
         <v>129</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>19</v>
+      <c r="F122" t="s">
+        <v>315</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" t="s">
+        <v>165</v>
+      </c>
+      <c r="L122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -4976,20 +5853,29 @@
       <c r="E123" t="s">
         <v>129</v>
       </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>19</v>
+      <c r="F123" t="s">
+        <v>316</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" t="s">
+        <v>166</v>
+      </c>
+      <c r="L123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5005,20 +5891,29 @@
       <c r="E124" t="s">
         <v>129</v>
       </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>19</v>
+      <c r="F124" t="s">
+        <v>317</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" t="s">
+        <v>167</v>
+      </c>
+      <c r="L124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5034,20 +5929,29 @@
       <c r="E125" t="s">
         <v>129</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>19</v>
+      <c r="F125" t="s">
+        <v>318</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>168</v>
+      </c>
+      <c r="L125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5063,20 +5967,29 @@
       <c r="E126" t="s">
         <v>129</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>19</v>
+      <c r="F126" t="s">
+        <v>319</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" t="s">
+        <v>169</v>
+      </c>
+      <c r="L126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5092,20 +6005,29 @@
       <c r="E127" t="s">
         <v>129</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>19</v>
+      <c r="F127" t="s">
+        <v>320</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" t="s">
+        <v>170</v>
+      </c>
+      <c r="L127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5121,20 +6043,23 @@
       <c r="E128" t="s">
         <v>145</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>19</v>
+      <c r="F128" t="s">
+        <v>321</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J128" t="s">
+      <c r="I128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5150,20 +6075,23 @@
       <c r="E129" t="s">
         <v>145</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>19</v>
+      <c r="F129" t="s">
+        <v>141</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J129" t="s">
+      <c r="I129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5179,20 +6107,23 @@
       <c r="E130" t="s">
         <v>145</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>19</v>
+      <c r="F130" t="s">
+        <v>322</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J130" t="s">
+      <c r="I130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5208,20 +6139,23 @@
       <c r="E131" t="s">
         <v>145</v>
       </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>19</v>
+      <c r="F131" t="s">
+        <v>140</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J131" t="s">
+      <c r="I131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5237,20 +6171,23 @@
       <c r="E132" t="s">
         <v>145</v>
       </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>19</v>
+      <c r="F132" t="s">
+        <v>138</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J132" t="s">
+      <c r="I132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5266,20 +6203,23 @@
       <c r="E133" t="s">
         <v>145</v>
       </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>19</v>
+      <c r="F133" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J133" t="s">
+      <c r="I133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5295,20 +6235,23 @@
       <c r="E134" t="s">
         <v>145</v>
       </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>19</v>
+      <c r="F134" t="s">
+        <v>143</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J134" t="s">
+      <c r="I134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5324,20 +6267,23 @@
       <c r="E135" t="s">
         <v>145</v>
       </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>19</v>
+      <c r="F135" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J135" t="s">
+      <c r="I135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5353,20 +6299,23 @@
       <c r="E136" t="s">
         <v>145</v>
       </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>19</v>
+      <c r="F136" t="s">
+        <v>323</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J136" t="s">
+      <c r="I136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5382,20 +6331,23 @@
       <c r="E137" t="s">
         <v>145</v>
       </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>19</v>
+      <c r="F137" t="s">
+        <v>136</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J137" t="s">
+      <c r="I137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5411,20 +6363,23 @@
       <c r="E138" t="s">
         <v>145</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>19</v>
+      <c r="F138" t="s">
+        <v>324</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J138" t="s">
+      <c r="I138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5440,20 +6395,23 @@
       <c r="E139" t="s">
         <v>145</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>19</v>
+      <c r="F139" t="s">
+        <v>325</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J139" t="s">
+      <c r="I139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5469,20 +6427,23 @@
       <c r="E140" t="s">
         <v>145</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>19</v>
+      <c r="F140" t="s">
+        <v>326</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J140" t="s">
+      <c r="I140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5498,20 +6459,23 @@
       <c r="E141" t="s">
         <v>145</v>
       </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>19</v>
+      <c r="F141" t="s">
+        <v>137</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J141" t="s">
+      <c r="I141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5527,17 +6491,404 @@
       <c r="E142" t="s">
         <v>145</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>19</v>
+      <c r="F142" t="s">
+        <v>142</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J142" t="s">
+      <c r="I142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>18</v>
+      </c>
+      <c r="E143" t="s">
+        <v>189</v>
+      </c>
+      <c r="F143" t="s">
+        <v>173</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143">
+        <v>141</v>
+      </c>
+      <c r="L143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>18</v>
+      </c>
+      <c r="E144" t="s">
+        <v>189</v>
+      </c>
+      <c r="F144" t="s">
+        <v>175</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144">
+        <v>142</v>
+      </c>
+      <c r="L144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>18</v>
+      </c>
+      <c r="E145" t="s">
+        <v>189</v>
+      </c>
+      <c r="F145" t="s">
+        <v>171</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145">
+        <v>143</v>
+      </c>
+      <c r="L145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>189</v>
+      </c>
+      <c r="F146" t="s">
+        <v>192</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146">
+        <v>144</v>
+      </c>
+      <c r="L146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>18</v>
+      </c>
+      <c r="E147" t="s">
+        <v>189</v>
+      </c>
+      <c r="F147" t="s">
+        <v>194</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147">
+        <v>145</v>
+      </c>
+      <c r="L147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>18</v>
+      </c>
+      <c r="E148" t="s">
+        <v>189</v>
+      </c>
+      <c r="F148" t="s">
+        <v>177</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148">
+        <v>146</v>
+      </c>
+      <c r="L148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>18</v>
+      </c>
+      <c r="E149" t="s">
+        <v>189</v>
+      </c>
+      <c r="F149" t="s">
+        <v>190</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149">
+        <v>147</v>
+      </c>
+      <c r="L149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>189</v>
+      </c>
+      <c r="F150" t="s">
+        <v>179</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150">
+        <v>148</v>
+      </c>
+      <c r="L150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>18</v>
+      </c>
+      <c r="E151" t="s">
+        <v>189</v>
+      </c>
+      <c r="F151" t="s">
+        <v>187</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151">
+        <v>149</v>
+      </c>
+      <c r="L151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>189</v>
+      </c>
+      <c r="F152" t="s">
+        <v>181</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152">
+        <v>150</v>
+      </c>
+      <c r="L152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>18</v>
+      </c>
+      <c r="E153" t="s">
+        <v>189</v>
+      </c>
+      <c r="F153" t="s">
+        <v>183</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153">
+        <v>151</v>
+      </c>
+      <c r="L153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>18</v>
+      </c>
+      <c r="E154" t="s">
+        <v>189</v>
+      </c>
+      <c r="F154" t="s">
+        <v>185</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154">
+        <v>152</v>
+      </c>
+      <c r="L154" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/database/imports/terms.xlsx
+++ b/database/imports/terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B340D59A-3B76-43F5-A5AE-5B85287D701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58073307-3865-475F-BC36-C73CB775E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="780" windowWidth="21600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="1" r:id="rId1"/>
@@ -2014,7 +2014,7 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B132" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>

--- a/database/imports/terms.xlsx
+++ b/database/imports/terms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\Ocadmin\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58073307-3865-475F-BC36-C73CB775E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2525FA-2AE7-49E4-9F40-E95B2FDB0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="780" windowWidth="21600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="terms" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
@@ -578,13 +578,7 @@
   </si>
   <si>
     <t>1.2L</t>
-  </si>
-  <si>
-    <t>1.2L</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5L</t>
   </si>
   <si>
     <t>0.5L</t>
@@ -592,13 +586,7 @@
   </si>
   <si>
     <t>0.6L</t>
-  </si>
-  <si>
-    <t>0.6L</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8L</t>
   </si>
   <si>
     <t>1.8L</t>
@@ -606,13 +594,7 @@
   </si>
   <si>
     <t>2.4L</t>
-  </si>
-  <si>
-    <t>2.4L</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6L</t>
   </si>
   <si>
     <t>3.6L</t>
@@ -620,13 +602,7 @@
   </si>
   <si>
     <t>4.2L</t>
-  </si>
-  <si>
-    <t>4.2L</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.8L</t>
   </si>
   <si>
     <t>4.8L</t>
@@ -634,9 +610,6 @@
   </si>
   <si>
     <t>3.0L</t>
-  </si>
-  <si>
-    <t>3.0L</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -645,13 +618,7 @@
   </si>
   <si>
     <t>2.0L</t>
-  </si>
-  <si>
-    <t>2.0L</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5L</t>
   </si>
   <si>
     <t>1.5L</t>
@@ -659,404 +626,7 @@
   </si>
   <si>
     <t>1.6L</t>
-  </si>
-  <si>
-    <t>1.6L</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>Monitors</t>
-  </si>
-  <si>
-    <t>Printers</t>
-  </si>
-  <si>
-    <t>Scanners</t>
-  </si>
-  <si>
-    <t>Web Cameras</t>
-  </si>
-  <si>
-    <t>Desktops</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Laptops &amp; Notebooks</t>
-  </si>
-  <si>
-    <t>Macs</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Tablets</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Big</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>AUDI</t>
-  </si>
-  <si>
-    <t>ALFA ROMEO</t>
-  </si>
-  <si>
-    <t>ASTON MARTIN</t>
-  </si>
-  <si>
-    <t>M-BENZ</t>
-  </si>
-  <si>
-    <t>BENTLEY</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>CHERY</t>
-  </si>
-  <si>
-    <t>CITROEN</t>
-  </si>
-  <si>
-    <t>DAIHATSU</t>
-  </si>
-  <si>
-    <t>DFSK</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>FORMOSA</t>
-  </si>
-  <si>
-    <t>FOTON</t>
-  </si>
-  <si>
-    <t>FERRARI</t>
-  </si>
-  <si>
-    <t>FIAT</t>
-  </si>
-  <si>
-    <t>HINO</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>HYUNDAI</t>
-  </si>
-  <si>
-    <t>HUMMER</t>
-  </si>
-  <si>
-    <t>INFINITI</t>
-  </si>
-  <si>
-    <t>ISUZU</t>
-  </si>
-  <si>
-    <t>IVECO</t>
-  </si>
-  <si>
-    <t>JAGUAR</t>
-  </si>
-  <si>
-    <t>JEEP</t>
-  </si>
-  <si>
-    <t>KIA</t>
-  </si>
-  <si>
-    <t>LEXUS</t>
-  </si>
-  <si>
-    <t>LUXGEN</t>
-  </si>
-  <si>
-    <t>LAMBORGHINI</t>
-  </si>
-  <si>
-    <t>LAND ROVER</t>
-  </si>
-  <si>
-    <t>LANCIA</t>
-  </si>
-  <si>
-    <t>LOTUS</t>
-  </si>
-  <si>
-    <t>MAZDA</t>
-  </si>
-  <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
-    <t>MAHINDRA</t>
-  </si>
-  <si>
-    <t>MCLAREN</t>
-  </si>
-  <si>
-    <t>MASERATI</t>
-  </si>
-  <si>
-    <t>MORGAN</t>
-  </si>
-  <si>
-    <t>MINI</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>NISSAN</t>
-  </si>
-  <si>
-    <t>OPEL</t>
-  </si>
-  <si>
-    <t>PROTON</t>
-  </si>
-  <si>
-    <t>PEUGEOT</t>
-  </si>
-  <si>
-    <t>PORSCHE</t>
-  </si>
-  <si>
-    <t>ROLLS ROYCE</t>
-  </si>
-  <si>
-    <t>RENAULT</t>
-  </si>
-  <si>
-    <t>SUZUKI</t>
-  </si>
-  <si>
-    <t>SUBARU</t>
-  </si>
-  <si>
-    <t>SSANGYONG</t>
-  </si>
-  <si>
-    <t>SMART</t>
-  </si>
-  <si>
-    <t>SAAB</t>
-  </si>
-  <si>
-    <t>SKODA</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>TOBE</t>
-  </si>
-  <si>
-    <t>TESLA</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>VOLVO</t>
-  </si>
-  <si>
-    <t>ACCORD</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>CIVIC</t>
-  </si>
-  <si>
-    <t>CR-V</t>
-  </si>
-  <si>
-    <t>CR-Z</t>
-  </si>
-  <si>
-    <t>FIT</t>
-  </si>
-  <si>
-    <t>HR-V</t>
-  </si>
-  <si>
-    <t>INSIGHT</t>
-  </si>
-  <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>NSX</t>
-  </si>
-  <si>
-    <t>ODYSSEY</t>
-  </si>
-  <si>
-    <t>4 RUNNER</t>
-  </si>
-  <si>
-    <t>ALPHARD</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>CAMRY</t>
-  </si>
-  <si>
-    <t>CAMRY 日製</t>
-  </si>
-  <si>
-    <t>CH-R</t>
-  </si>
-  <si>
-    <t>Corolla ALTIS</t>
-  </si>
-  <si>
-    <t>Corolla Cross</t>
-  </si>
-  <si>
-    <t>Corolla Sport (AURIS)</t>
-  </si>
-  <si>
-    <t>CROWN</t>
-  </si>
-  <si>
-    <t>FJ Cruiser</t>
-  </si>
-  <si>
-    <t>GR SUPRA</t>
-  </si>
-  <si>
-    <t>GR YARIS</t>
-  </si>
-  <si>
-    <t>GRANVIA</t>
-  </si>
-  <si>
-    <t>HIACE</t>
-  </si>
-  <si>
-    <t>HIACE (Solemio)</t>
-  </si>
-  <si>
-    <t>Highlander Hybrid</t>
-  </si>
-  <si>
-    <t>HILUX</t>
-  </si>
-  <si>
-    <t>INNOVA</t>
-  </si>
-  <si>
-    <t>Land Cruiser PRADO</t>
-  </si>
-  <si>
-    <t>PREVIA</t>
-  </si>
-  <si>
-    <t>PRIUS</t>
-  </si>
-  <si>
-    <t>RAV4</t>
-  </si>
-  <si>
-    <t>SIENNA US</t>
-  </si>
-  <si>
-    <t>SIENTA</t>
-  </si>
-  <si>
-    <t>TACOMA</t>
-  </si>
-  <si>
-    <t>TOWN ACE Truck</t>
-  </si>
-  <si>
-    <t>TOWN ACE Van</t>
-  </si>
-  <si>
-    <t>TUNDRA</t>
-  </si>
-  <si>
-    <t>VIOS</t>
-  </si>
-  <si>
-    <t>WISH</t>
-  </si>
-  <si>
-    <t>YARIS</t>
-  </si>
-  <si>
-    <t>YARIS Crossover</t>
-  </si>
-  <si>
-    <t>ZACE SURF</t>
-  </si>
-  <si>
-    <t>First generation (1995)</t>
-  </si>
-  <si>
-    <t>Second generation (2001)</t>
-  </si>
-  <si>
-    <t>Third generation (2006)</t>
-  </si>
-  <si>
-    <t>Fourth generation (2011)</t>
-  </si>
-  <si>
-    <t>Fifth generation (2016)</t>
-  </si>
-  <si>
-    <t>Sixth generation (2022</t>
-  </si>
-  <si>
-    <t>Cargo Van</t>
-  </si>
-  <si>
-    <t>Convertible SUV</t>
-  </si>
-  <si>
-    <t>Pickup Truck</t>
-  </si>
-  <si>
-    <t>Sport Utility Coupe</t>
-  </si>
-  <si>
-    <t>Sports Car</t>
-  </si>
-  <si>
-    <t>Station Wagon</t>
   </si>
 </sst>
 </file>
@@ -2011,28 +1581,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2049,22 +1618,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2077,17 +1643,17 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2100,20 +1666,17 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2126,20 +1689,17 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2152,20 +1712,17 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2178,20 +1735,17 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2204,20 +1758,17 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2230,20 +1781,17 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2256,20 +1804,17 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2282,20 +1827,17 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2308,20 +1850,17 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2334,20 +1873,17 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2360,20 +1896,17 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2386,20 +1919,17 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2412,20 +1942,17 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2438,20 +1965,17 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2464,20 +1988,17 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2490,20 +2011,17 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2519,23 +2037,20 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2551,23 +2066,20 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2583,23 +2095,20 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
+      <c r="I21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2615,23 +2124,20 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22">
+      <c r="I22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2647,23 +2153,20 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2679,23 +2182,20 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24">
+      <c r="I24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2711,23 +2211,20 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>219</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25">
+      <c r="I25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2743,23 +2240,20 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26">
+      <c r="I26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2775,23 +2269,20 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27">
+      <c r="I27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2807,23 +2298,20 @@
       <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2839,23 +2327,20 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2871,23 +2356,20 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" t="s">
-        <v>224</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30">
+      <c r="I30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2903,23 +2385,20 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31">
+      <c r="I31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2935,23 +2414,20 @@
       <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32">
+      <c r="I32">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2967,23 +2443,20 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33">
+      <c r="I33">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2999,23 +2472,20 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="F34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3031,23 +2501,20 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
-        <v>229</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3063,23 +2530,20 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36">
+      <c r="I36">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3095,23 +2559,20 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3127,23 +2588,20 @@
       <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="F38" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38">
+      <c r="I38">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3159,23 +2617,20 @@
       <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" t="s">
-        <v>233</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3191,23 +2646,20 @@
       <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="F40" t="s">
-        <v>234</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40">
+      <c r="I40">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3223,23 +2675,20 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
-        <v>235</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41">
+      <c r="I41">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3255,23 +2704,20 @@
       <c r="E42" t="s">
         <v>17</v>
       </c>
-      <c r="F42" t="s">
-        <v>236</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42">
+      <c r="I42">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3287,23 +2733,20 @@
       <c r="E43" t="s">
         <v>17</v>
       </c>
-      <c r="F43" t="s">
-        <v>237</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43">
+      <c r="I43">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3319,23 +2762,20 @@
       <c r="E44" t="s">
         <v>17</v>
       </c>
-      <c r="F44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44">
+      <c r="I44">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3351,23 +2791,20 @@
       <c r="E45" t="s">
         <v>17</v>
       </c>
-      <c r="F45" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45">
+      <c r="I45">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3383,23 +2820,20 @@
       <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="F46" t="s">
-        <v>240</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46">
+      <c r="I46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3415,23 +2849,20 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F47" t="s">
-        <v>241</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47">
+      <c r="I47">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3447,23 +2878,20 @@
       <c r="E48" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
-        <v>242</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48">
+      <c r="I48">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3479,23 +2907,20 @@
       <c r="E49" t="s">
         <v>17</v>
       </c>
-      <c r="F49" t="s">
-        <v>243</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49">
+      <c r="I49">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3511,23 +2936,20 @@
       <c r="E50" t="s">
         <v>17</v>
       </c>
-      <c r="F50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50">
+      <c r="I50">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3543,23 +2965,20 @@
       <c r="E51" t="s">
         <v>17</v>
       </c>
-      <c r="F51" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51">
+      <c r="I51">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3575,23 +2994,20 @@
       <c r="E52" t="s">
         <v>17</v>
       </c>
-      <c r="F52" t="s">
-        <v>246</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52">
+      <c r="I52">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3607,23 +3023,20 @@
       <c r="E53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53">
+      <c r="I53">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3639,23 +3052,20 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" t="s">
-        <v>248</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54">
+      <c r="I54">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3671,23 +3081,20 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55">
+      <c r="I55">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3703,23 +3110,20 @@
       <c r="E56" t="s">
         <v>17</v>
       </c>
-      <c r="F56" t="s">
-        <v>250</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56">
+      <c r="I56">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3735,23 +3139,20 @@
       <c r="E57" t="s">
         <v>17</v>
       </c>
-      <c r="F57" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57">
+      <c r="I57">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3767,23 +3168,20 @@
       <c r="E58" t="s">
         <v>17</v>
       </c>
-      <c r="F58" t="s">
-        <v>252</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58">
+      <c r="I58">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3799,23 +3197,20 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" t="s">
-        <v>253</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59">
+      <c r="I59">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3831,23 +3226,20 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" t="s">
-        <v>254</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60">
+      <c r="I60">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3863,23 +3255,20 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="F61" t="s">
-        <v>255</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61">
+      <c r="I61">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3895,23 +3284,20 @@
       <c r="E62" t="s">
         <v>17</v>
       </c>
-      <c r="F62" t="s">
-        <v>256</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62">
+      <c r="I62">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3927,23 +3313,20 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="F63" t="s">
-        <v>257</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63">
+      <c r="I63">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3959,23 +3342,20 @@
       <c r="E64" t="s">
         <v>17</v>
       </c>
-      <c r="F64" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64">
+      <c r="I64">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3991,23 +3371,20 @@
       <c r="E65" t="s">
         <v>17</v>
       </c>
-      <c r="F65" t="s">
-        <v>259</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65">
+      <c r="I65">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4023,23 +3400,20 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="F66" t="s">
-        <v>260</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66">
+      <c r="I66">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4055,23 +3429,20 @@
       <c r="E67" t="s">
         <v>17</v>
       </c>
-      <c r="F67" t="s">
-        <v>261</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67">
+      <c r="I67">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4087,23 +3458,20 @@
       <c r="E68" t="s">
         <v>17</v>
       </c>
-      <c r="F68" t="s">
-        <v>262</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68">
+      <c r="I68">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4119,23 +3487,20 @@
       <c r="E69" t="s">
         <v>17</v>
       </c>
-      <c r="F69" t="s">
-        <v>263</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69">
+      <c r="I69">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4151,23 +3516,20 @@
       <c r="E70" t="s">
         <v>17</v>
       </c>
-      <c r="F70" t="s">
-        <v>264</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70">
+      <c r="I70">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4183,23 +3545,20 @@
       <c r="E71" t="s">
         <v>17</v>
       </c>
-      <c r="F71" t="s">
-        <v>265</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71">
+      <c r="I71">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4215,23 +3574,20 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72" t="s">
-        <v>266</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72">
+      <c r="I72">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4247,23 +3603,20 @@
       <c r="E73" t="s">
         <v>17</v>
       </c>
-      <c r="F73" t="s">
-        <v>267</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J73">
+      <c r="I73">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4279,23 +3632,20 @@
       <c r="E74" t="s">
         <v>17</v>
       </c>
-      <c r="F74" t="s">
-        <v>268</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74">
+      <c r="I74">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4311,23 +3661,20 @@
       <c r="E75" t="s">
         <v>17</v>
       </c>
-      <c r="F75" t="s">
-        <v>269</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75">
+      <c r="I75">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4343,23 +3690,20 @@
       <c r="E76" t="s">
         <v>79</v>
       </c>
-      <c r="F76" t="s">
-        <v>270</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="I76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4375,23 +3719,20 @@
       <c r="E77" t="s">
         <v>79</v>
       </c>
-      <c r="F77" t="s">
-        <v>271</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="I77" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4407,23 +3748,20 @@
       <c r="E78" t="s">
         <v>79</v>
       </c>
-      <c r="F78" t="s">
-        <v>272</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="I78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4439,23 +3777,20 @@
       <c r="E79" t="s">
         <v>79</v>
       </c>
-      <c r="F79" t="s">
-        <v>273</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="I79" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4471,23 +3806,20 @@
       <c r="E80" t="s">
         <v>79</v>
       </c>
-      <c r="F80" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="I80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4503,23 +3835,20 @@
       <c r="E81" t="s">
         <v>79</v>
       </c>
-      <c r="F81" t="s">
-        <v>275</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="I81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4535,23 +3864,20 @@
       <c r="E82" t="s">
         <v>79</v>
       </c>
-      <c r="F82" t="s">
-        <v>276</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="I82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4567,23 +3893,20 @@
       <c r="E83" t="s">
         <v>79</v>
       </c>
-      <c r="F83" t="s">
-        <v>277</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="I83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4599,23 +3922,20 @@
       <c r="E84" t="s">
         <v>79</v>
       </c>
-      <c r="F84" t="s">
-        <v>278</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="I84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4631,23 +3951,20 @@
       <c r="E85" t="s">
         <v>79</v>
       </c>
-      <c r="F85" t="s">
-        <v>279</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="I85" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4663,23 +3980,20 @@
       <c r="E86" t="s">
         <v>79</v>
       </c>
-      <c r="F86" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="I86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4695,23 +4009,20 @@
       <c r="E87" t="s">
         <v>79</v>
       </c>
-      <c r="F87" t="s">
-        <v>281</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="I87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4728,22 +4039,19 @@
         <v>79</v>
       </c>
       <c r="F88">
-        <v>86</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="I88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4759,23 +4067,20 @@
       <c r="E89" t="s">
         <v>79</v>
       </c>
-      <c r="F89" t="s">
-        <v>282</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="I89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4791,23 +4096,20 @@
       <c r="E90" t="s">
         <v>79</v>
       </c>
-      <c r="F90" t="s">
-        <v>283</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="I90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4823,23 +4125,20 @@
       <c r="E91" t="s">
         <v>79</v>
       </c>
-      <c r="F91" t="s">
-        <v>284</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="I91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4855,23 +4154,20 @@
       <c r="E92" t="s">
         <v>79</v>
       </c>
-      <c r="F92" t="s">
-        <v>285</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="I92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4887,23 +4183,20 @@
       <c r="E93" t="s">
         <v>79</v>
       </c>
-      <c r="F93" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="I93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4919,23 +4212,20 @@
       <c r="E94" t="s">
         <v>79</v>
       </c>
-      <c r="F94" t="s">
-        <v>287</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="I94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4951,23 +4241,20 @@
       <c r="E95" t="s">
         <v>79</v>
       </c>
-      <c r="F95" t="s">
-        <v>288</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="I95" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4983,23 +4270,20 @@
       <c r="E96" t="s">
         <v>79</v>
       </c>
-      <c r="F96" t="s">
-        <v>289</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="I96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5015,23 +4299,20 @@
       <c r="E97" t="s">
         <v>79</v>
       </c>
-      <c r="F97" t="s">
-        <v>290</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="I97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5047,23 +4328,20 @@
       <c r="E98" t="s">
         <v>79</v>
       </c>
-      <c r="F98" t="s">
-        <v>291</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="I98" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5079,23 +4357,20 @@
       <c r="E99" t="s">
         <v>79</v>
       </c>
-      <c r="F99" t="s">
-        <v>292</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="I99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5111,23 +4386,20 @@
       <c r="E100" t="s">
         <v>79</v>
       </c>
-      <c r="F100" t="s">
-        <v>293</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="I100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5143,23 +4415,20 @@
       <c r="E101" t="s">
         <v>79</v>
       </c>
-      <c r="F101" t="s">
-        <v>294</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="I101" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5175,23 +4444,20 @@
       <c r="E102" t="s">
         <v>79</v>
       </c>
-      <c r="F102" t="s">
-        <v>295</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="I102" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5207,23 +4473,20 @@
       <c r="E103" t="s">
         <v>79</v>
       </c>
-      <c r="F103" t="s">
-        <v>296</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J103" t="s">
+      <c r="I103" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5239,23 +4502,20 @@
       <c r="E104" t="s">
         <v>79</v>
       </c>
-      <c r="F104" t="s">
-        <v>297</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J104" t="s">
+      <c r="I104" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5271,23 +4531,20 @@
       <c r="E105" t="s">
         <v>79</v>
       </c>
-      <c r="F105" t="s">
-        <v>298</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="I105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5303,23 +4560,20 @@
       <c r="E106" t="s">
         <v>79</v>
       </c>
-      <c r="F106" t="s">
-        <v>299</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="I106" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5335,23 +4589,20 @@
       <c r="E107" t="s">
         <v>79</v>
       </c>
-      <c r="F107" t="s">
-        <v>300</v>
-      </c>
-      <c r="G107">
-        <v>1</v>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="I107" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5367,23 +4618,20 @@
       <c r="E108" t="s">
         <v>79</v>
       </c>
-      <c r="F108" t="s">
-        <v>301</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="I108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5399,23 +4647,20 @@
       <c r="E109" t="s">
         <v>79</v>
       </c>
-      <c r="F109" t="s">
-        <v>302</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="I109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5431,23 +4676,20 @@
       <c r="E110" t="s">
         <v>79</v>
       </c>
-      <c r="F110" t="s">
-        <v>303</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="I110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5463,23 +4705,20 @@
       <c r="E111" t="s">
         <v>79</v>
       </c>
-      <c r="F111" t="s">
-        <v>304</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="I111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5495,23 +4734,20 @@
       <c r="E112" t="s">
         <v>79</v>
       </c>
-      <c r="F112" t="s">
-        <v>305</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="I112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5527,23 +4763,20 @@
       <c r="E113" t="s">
         <v>79</v>
       </c>
-      <c r="F113" t="s">
-        <v>306</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="I113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5559,23 +4792,20 @@
       <c r="E114" t="s">
         <v>79</v>
       </c>
-      <c r="F114" t="s">
-        <v>307</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="I114" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5591,23 +4821,20 @@
       <c r="E115" t="s">
         <v>79</v>
       </c>
-      <c r="F115" t="s">
-        <v>308</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="I115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5623,23 +4850,20 @@
       <c r="E116" t="s">
         <v>79</v>
       </c>
-      <c r="F116" t="s">
-        <v>309</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="I116" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5655,23 +4879,20 @@
       <c r="E117" t="s">
         <v>79</v>
       </c>
-      <c r="F117" t="s">
-        <v>310</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="I117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5687,23 +4908,20 @@
       <c r="E118" t="s">
         <v>79</v>
       </c>
-      <c r="F118" t="s">
-        <v>311</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="I118" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5719,23 +4937,20 @@
       <c r="E119" t="s">
         <v>79</v>
       </c>
-      <c r="F119" t="s">
-        <v>312</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="I119" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5751,23 +4966,20 @@
       <c r="E120" t="s">
         <v>79</v>
       </c>
-      <c r="F120" t="s">
-        <v>313</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="I120" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5783,23 +4995,20 @@
       <c r="E121" t="s">
         <v>79</v>
       </c>
-      <c r="F121" t="s">
-        <v>314</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="I121" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5815,29 +5024,26 @@
       <c r="E122" t="s">
         <v>129</v>
       </c>
-      <c r="F122" t="s">
-        <v>315</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>19</v>
+      <c r="I122" t="s">
+        <v>80</v>
       </c>
       <c r="J122" t="s">
-        <v>80</v>
-      </c>
-      <c r="K122" t="s">
         <v>165</v>
       </c>
-      <c r="L122">
+      <c r="K122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5853,29 +5059,26 @@
       <c r="E123" t="s">
         <v>129</v>
       </c>
-      <c r="F123" t="s">
-        <v>316</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>19</v>
+      <c r="I123" t="s">
+        <v>80</v>
       </c>
       <c r="J123" t="s">
-        <v>80</v>
-      </c>
-      <c r="K123" t="s">
         <v>166</v>
       </c>
-      <c r="L123">
+      <c r="K123">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5891,29 +5094,26 @@
       <c r="E124" t="s">
         <v>129</v>
       </c>
-      <c r="F124" t="s">
-        <v>317</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>19</v>
+      <c r="I124" t="s">
+        <v>80</v>
       </c>
       <c r="J124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K124" t="s">
         <v>167</v>
       </c>
-      <c r="L124">
+      <c r="K124">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5929,29 +5129,26 @@
       <c r="E125" t="s">
         <v>129</v>
       </c>
-      <c r="F125" t="s">
-        <v>318</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>19</v>
+      <c r="I125" t="s">
+        <v>80</v>
       </c>
       <c r="J125" t="s">
-        <v>80</v>
-      </c>
-      <c r="K125" t="s">
         <v>168</v>
       </c>
-      <c r="L125">
+      <c r="K125">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5967,29 +5164,26 @@
       <c r="E126" t="s">
         <v>129</v>
       </c>
-      <c r="F126" t="s">
-        <v>319</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>19</v>
+      <c r="I126" t="s">
+        <v>80</v>
       </c>
       <c r="J126" t="s">
-        <v>80</v>
-      </c>
-      <c r="K126" t="s">
         <v>169</v>
       </c>
-      <c r="L126">
+      <c r="K126">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6005,29 +5199,26 @@
       <c r="E127" t="s">
         <v>129</v>
       </c>
-      <c r="F127" t="s">
-        <v>320</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>19</v>
+      <c r="I127" t="s">
+        <v>80</v>
       </c>
       <c r="J127" t="s">
-        <v>80</v>
-      </c>
-      <c r="K127" t="s">
         <v>170</v>
       </c>
-      <c r="L127">
+      <c r="K127">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6043,23 +5234,20 @@
       <c r="E128" t="s">
         <v>145</v>
       </c>
-      <c r="F128" t="s">
-        <v>321</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K128" t="s">
+      <c r="J128" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6075,23 +5263,20 @@
       <c r="E129" t="s">
         <v>145</v>
       </c>
-      <c r="F129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K129" t="s">
+      <c r="J129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6107,23 +5292,20 @@
       <c r="E130" t="s">
         <v>145</v>
       </c>
-      <c r="F130" t="s">
-        <v>322</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="J130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6139,23 +5321,20 @@
       <c r="E131" t="s">
         <v>145</v>
       </c>
-      <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="J131" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6171,23 +5350,20 @@
       <c r="E132" t="s">
         <v>145</v>
       </c>
-      <c r="F132" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="J132" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6203,23 +5379,20 @@
       <c r="E133" t="s">
         <v>145</v>
       </c>
-      <c r="F133" t="s">
-        <v>139</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K133" t="s">
+      <c r="J133" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6235,23 +5408,20 @@
       <c r="E134" t="s">
         <v>145</v>
       </c>
-      <c r="F134" t="s">
-        <v>143</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K134" t="s">
+      <c r="J134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6267,23 +5437,20 @@
       <c r="E135" t="s">
         <v>145</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" t="s">
         <v>144</v>
       </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K135" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6299,23 +5466,20 @@
       <c r="E136" t="s">
         <v>145</v>
       </c>
-      <c r="F136" t="s">
-        <v>323</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K136" t="s">
+      <c r="J136" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6331,23 +5495,20 @@
       <c r="E137" t="s">
         <v>145</v>
       </c>
-      <c r="F137" t="s">
-        <v>136</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K137" t="s">
+      <c r="J137" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6363,23 +5524,20 @@
       <c r="E138" t="s">
         <v>145</v>
       </c>
-      <c r="F138" t="s">
-        <v>324</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K138" t="s">
+      <c r="J138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6395,23 +5553,20 @@
       <c r="E139" t="s">
         <v>145</v>
       </c>
-      <c r="F139" t="s">
-        <v>325</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K139" t="s">
+      <c r="J139" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6427,23 +5582,20 @@
       <c r="E140" t="s">
         <v>145</v>
       </c>
-      <c r="F140" t="s">
-        <v>326</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K140" t="s">
+      <c r="J140" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6459,23 +5611,20 @@
       <c r="E141" t="s">
         <v>145</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" t="s">
         <v>137</v>
       </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6491,23 +5640,20 @@
       <c r="E142" t="s">
         <v>145</v>
       </c>
-      <c r="F142" t="s">
-        <v>142</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K142" t="s">
+      <c r="J142" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6518,28 +5664,25 @@
         <v>18</v>
       </c>
       <c r="E143" t="s">
-        <v>189</v>
-      </c>
-      <c r="F143" t="s">
-        <v>173</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K143">
+      <c r="J143">
         <v>141</v>
       </c>
-      <c r="L143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6550,28 +5693,25 @@
         <v>18</v>
       </c>
       <c r="E144" t="s">
-        <v>189</v>
-      </c>
-      <c r="F144" t="s">
-        <v>175</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K144">
+      <c r="J144">
         <v>142</v>
       </c>
-      <c r="L144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6582,28 +5722,25 @@
         <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>189</v>
-      </c>
-      <c r="F145" t="s">
+        <v>180</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145">
+        <v>143</v>
+      </c>
+      <c r="K145" t="s">
         <v>171</v>
       </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K145">
-        <v>143</v>
-      </c>
-      <c r="L145" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6614,28 +5751,25 @@
         <v>18</v>
       </c>
       <c r="E146" t="s">
-        <v>189</v>
-      </c>
-      <c r="F146" t="s">
-        <v>192</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K146">
+      <c r="J146">
         <v>144</v>
       </c>
-      <c r="L146" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6646,28 +5780,25 @@
         <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>189</v>
-      </c>
-      <c r="F147" t="s">
-        <v>194</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K147">
+      <c r="J147">
         <v>145</v>
       </c>
-      <c r="L147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6678,28 +5809,25 @@
         <v>18</v>
       </c>
       <c r="E148" t="s">
-        <v>189</v>
-      </c>
-      <c r="F148" t="s">
-        <v>177</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K148">
+      <c r="J148">
         <v>146</v>
       </c>
-      <c r="L148" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6710,28 +5838,25 @@
         <v>18</v>
       </c>
       <c r="E149" t="s">
-        <v>189</v>
-      </c>
-      <c r="F149" t="s">
-        <v>190</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K149">
+      <c r="J149">
         <v>147</v>
       </c>
-      <c r="L149" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6742,28 +5867,25 @@
         <v>18</v>
       </c>
       <c r="E150" t="s">
-        <v>189</v>
-      </c>
-      <c r="F150" t="s">
-        <v>179</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K150">
+      <c r="J150">
         <v>148</v>
       </c>
-      <c r="L150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K150" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6774,28 +5896,25 @@
         <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>189</v>
-      </c>
-      <c r="F151" t="s">
-        <v>187</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K151">
+      <c r="J151">
         <v>149</v>
       </c>
-      <c r="L151" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6806,28 +5925,25 @@
         <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>189</v>
-      </c>
-      <c r="F152" t="s">
-        <v>181</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K152">
+      <c r="J152">
         <v>150</v>
       </c>
-      <c r="L152" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6838,28 +5954,25 @@
         <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>189</v>
-      </c>
-      <c r="F153" t="s">
-        <v>183</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K153">
+      <c r="J153">
         <v>151</v>
       </c>
-      <c r="L153" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6870,25 +5983,22 @@
         <v>18</v>
       </c>
       <c r="E154" t="s">
-        <v>189</v>
-      </c>
-      <c r="F154" t="s">
-        <v>185</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K154">
+      <c r="J154">
         <v>152</v>
       </c>
-      <c r="L154" t="s">
-        <v>186</v>
+      <c r="K154" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
